--- a/PlanilhasProntas/Thais Marins Lima - Amiga Egas_new.xlsx
+++ b/PlanilhasProntas/Thais Marins Lima - Amiga Egas_new.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Thais</t>
+          <t>Thais Marins, sem nome</t>
         </is>
       </c>
     </row>
